--- a/5.26晚起 数据压缩/城市距离 删改.xlsx
+++ b/5.26晚起 数据压缩/城市距离 删改.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B72E64-1F21-449B-AE66-8CE761056087}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2970" windowWidth="16425" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="770" yWindow="2970" windowWidth="16430" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,15 +354,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -372,6 +368,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -382,13 +390,6 @@
   <dxfs count="7">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
@@ -396,8 +397,18 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -423,12 +434,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -707,44 +715,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="5.125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="6.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16" width="5.08203125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="6.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.08203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -767,10 +775,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
@@ -806,7 +814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -865,7 +873,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -927,7 +935,7 @@
         <v>668.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -989,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>785.38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,9 +1184,9 @@
         <v>0.85079833965723606</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>79.975043959999994</v>
@@ -1235,9 +1243,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>98.284701484017603</v>
@@ -1294,7 +1302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1704,7 +1712,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1768,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>130.50259261592601</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1866,59 +1874,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M26" s="6" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M27" s="6" t="s">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="8"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M28" s="6" t="s">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="8"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M29" s="6" t="s">
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1934,19 +1942,19 @@
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="8"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1959,19 +1967,19 @@
       <c r="E31" s="1">
         <v>85.9</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="8"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1981,19 +1989,19 @@
       <c r="D32" s="1">
         <v>34.4</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="8"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2003,38 +2011,38 @@
       <c r="C33" s="1">
         <v>34.4</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="8"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1">
         <v>85.9</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="8"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2042,71 +2050,58 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="8"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="M36" s="6" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="M36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="8"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="M27:U27"/>
-    <mergeCell ref="M28:U28"/>
-    <mergeCell ref="M29:U29"/>
-    <mergeCell ref="M30:U30"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="M33:U33"/>
-    <mergeCell ref="M34:U34"/>
-    <mergeCell ref="M35:U35"/>
-    <mergeCell ref="M36:U36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="R10">
@@ -2119,7 +2114,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD25 A37:XFD1048576 V26:XFD36 A26:M36">
+  <conditionalFormatting sqref="V26:XFD36 B26:M36 B37:XFD1048576 A11:A1048576 B11:XFD25 A1:XFD10">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+      <formula>80.01</formula>
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>0.1</formula>
+      <formula>80</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2128,31 +2141,13 @@
         <color theme="5"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
-      <formula>80.01</formula>
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>100</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
-      <formula>0.1</formula>
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
       <formula>0.1</formula>
       <formula>80</formula>
     </cfRule>
